--- a/clanoverview_logs/generated_reports/2017-12-29_clanlog.xlsx
+++ b/clanoverview_logs/generated_reports/2017-12-29_clanlog.xlsx
@@ -74,18 +74,18 @@
     <t>member</t>
   </si>
   <si>
+    <t>clan de renzo</t>
+  </si>
+  <si>
+    <t>#J298GYQC</t>
+  </si>
+  <si>
     <t>ed</t>
   </si>
   <si>
     <t>#QR2VVJJG</t>
   </si>
   <si>
-    <t>clan de renzo</t>
-  </si>
-  <si>
-    <t>#J298GYQC</t>
-  </si>
-  <si>
     <t>billie jean</t>
   </si>
   <si>
@@ -119,6 +119,12 @@
     <t>#90VUQ988</t>
   </si>
   <si>
+    <t>THICK GIRLS</t>
+  </si>
+  <si>
+    <t>#8U09PR0V</t>
+  </si>
+  <si>
     <t>Beertjuh#</t>
   </si>
   <si>
@@ -131,10 +137,10 @@
     <t>#P0PV2CJY</t>
   </si>
   <si>
-    <t>THICK GIRLS</t>
-  </si>
-  <si>
-    <t>#8U09PR0V</t>
+    <t>Markś Village</t>
+  </si>
+  <si>
+    <t>#LRUGY0PQ</t>
   </si>
   <si>
     <t>leeuw</t>
@@ -161,10 +167,58 @@
     <t>#99UJ999G</t>
   </si>
   <si>
-    <t>Markś Village</t>
-  </si>
-  <si>
-    <t>#LRUGY0PQ</t>
+    <t>Bastos</t>
+  </si>
+  <si>
+    <t>#8RP8QV8V</t>
+  </si>
+  <si>
+    <t>Shyngalicious</t>
+  </si>
+  <si>
+    <t>#RLCLPJ</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>#828YUV9J</t>
+  </si>
+  <si>
+    <t>(j)de tik(j)</t>
+  </si>
+  <si>
+    <t>#GYVQ0Y8R</t>
+  </si>
+  <si>
+    <t>elandro</t>
+  </si>
+  <si>
+    <t>#22GU992L</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>#8LV09JG9</t>
+  </si>
+  <si>
+    <t>BlackWing</t>
+  </si>
+  <si>
+    <t>#PJ8CG2J9</t>
+  </si>
+  <si>
+    <t>pamuk39</t>
+  </si>
+  <si>
+    <t>#RV8JG08P</t>
+  </si>
+  <si>
+    <t>Z!P</t>
+  </si>
+  <si>
+    <t>#YVYU9Y8R</t>
   </si>
   <si>
     <t>* haakie *</t>
@@ -173,60 +227,6 @@
     <t>#2CUU0VJG</t>
   </si>
   <si>
-    <t>Bastos</t>
-  </si>
-  <si>
-    <t>#8RP8QV8V</t>
-  </si>
-  <si>
-    <t>Shyngalicious</t>
-  </si>
-  <si>
-    <t>#RLCLPJ</t>
-  </si>
-  <si>
-    <t>Wolverine</t>
-  </si>
-  <si>
-    <t>#828YUV9J</t>
-  </si>
-  <si>
-    <t>(j)de tik(j)</t>
-  </si>
-  <si>
-    <t>#GYVQ0Y8R</t>
-  </si>
-  <si>
-    <t>elandro</t>
-  </si>
-  <si>
-    <t>#22GU992L</t>
-  </si>
-  <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>#8LV09JG9</t>
-  </si>
-  <si>
-    <t>BlackWing</t>
-  </si>
-  <si>
-    <t>#PJ8CG2J9</t>
-  </si>
-  <si>
-    <t>pamuk39</t>
-  </si>
-  <si>
-    <t>#RV8JG08P</t>
-  </si>
-  <si>
-    <t>Z!P</t>
-  </si>
-  <si>
-    <t>#YVYU9Y8R</t>
-  </si>
-  <si>
     <t>kevintjuh93</t>
   </si>
   <si>
@@ -275,40 +275,40 @@
     <t>#2VGG9R288</t>
   </si>
   <si>
+    <t>KLEINE EDJE</t>
+  </si>
+  <si>
+    <t>#C0UC2QPJ</t>
+  </si>
+  <si>
+    <t>•#FRANK#•</t>
+  </si>
+  <si>
+    <t>#28YP9RL0G</t>
+  </si>
+  <si>
+    <t>ergo</t>
+  </si>
+  <si>
+    <t>#QR2LJQY</t>
+  </si>
+  <si>
+    <t>jojo</t>
+  </si>
+  <si>
+    <t>#22G9G88CC</t>
+  </si>
+  <si>
+    <t>OhhJayky!</t>
+  </si>
+  <si>
+    <t>#R0Y2J8G2</t>
+  </si>
+  <si>
     <t>marco25</t>
   </si>
   <si>
     <t>#9CGP2Y2G</t>
-  </si>
-  <si>
-    <t>KLEINE EDJE</t>
-  </si>
-  <si>
-    <t>#C0UC2QPJ</t>
-  </si>
-  <si>
-    <t>•#FRANK#•</t>
-  </si>
-  <si>
-    <t>#28YP9RL0G</t>
-  </si>
-  <si>
-    <t>ergo</t>
-  </si>
-  <si>
-    <t>#QR2LJQY</t>
-  </si>
-  <si>
-    <t>jojo</t>
-  </si>
-  <si>
-    <t>#22G9G88CC</t>
-  </si>
-  <si>
-    <t>OhhJayky!</t>
-  </si>
-  <si>
-    <t>#R0Y2J8G2</t>
   </si>
   <si>
     <t>Ergo460</t>
@@ -469,7 +469,7 @@
         <v>211.0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5143.0</v>
+        <v>5132.0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -504,13 +504,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>2006.0</v>
+        <v>2043.0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>810.0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4">
@@ -527,19 +527,19 @@
         <v>210.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5079.0</v>
+        <v>5064.0</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1261.0</v>
+        <v>1296.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1248.0</v>
+        <v>1320.0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
@@ -562,13 +562,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>247.0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +582,22 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>189.0</v>
+        <v>180.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5009.0</v>
+        <v>5016.0</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>84.0</v>
+        <v>730.0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>558.0</v>
+        <v>841.0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.15</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -611,22 +611,22 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>180.0</v>
+        <v>189.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>5001.0</v>
+        <v>5009.0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>649.0</v>
+        <v>84.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>841.0</v>
+        <v>558.0</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.77</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -643,7 +643,7 @@
         <v>172.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4926.0</v>
+        <v>4906.0</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -652,10 +652,10 @@
         <v>683.0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>662.0</v>
+        <v>697.0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -672,19 +672,19 @@
         <v>162.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>4869.0</v>
+        <v>4888.0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>695.0</v>
+        <v>910.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>697.0</v>
+        <v>808.0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="10">
@@ -701,19 +701,19 @@
         <v>180.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4826.0</v>
+        <v>4846.0</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>447.0</v>
+        <v>489.0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>518.0</v>
+        <v>592.0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="11">
@@ -785,22 +785,22 @@
         <v>36</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>179.0</v>
+        <v>184.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>4624.0</v>
+        <v>4646.0</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1188.0</v>
+        <v>744.0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>848.0</v>
+        <v>664.0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="14">
@@ -814,22 +814,22 @@
         <v>38</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>211.0</v>
+        <v>179.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4618.0</v>
+        <v>4646.0</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>994.0</v>
+        <v>1292.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2102.0</v>
+        <v>920.0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15">
@@ -843,22 +843,22 @@
         <v>40</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>184.0</v>
+        <v>211.0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4616.0</v>
+        <v>4641.0</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>735.0</v>
+        <v>994.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>479.0</v>
+        <v>2250.0</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>1.53</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         <v>42</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>175.0</v>
+        <v>178.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>4599.0</v>
+        <v>4623.0</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>817.0</v>
+        <v>3542.0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>1005.0</v>
+        <v>2655.0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.81</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17">
@@ -901,22 +901,22 @@
         <v>44</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>182.0</v>
+        <v>175.0</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>4561.0</v>
+        <v>4611.0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1965.0</v>
+        <v>864.0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>2041.0</v>
+        <v>1079.0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -930,19 +930,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>192.0</v>
+        <v>182.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4529.0</v>
+        <v>4593.0</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>264.0</v>
+        <v>2284.0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>257.0</v>
+        <v>2226.0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1.03</v>
@@ -959,22 +959,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>163.0</v>
+        <v>192.0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4524.0</v>
+        <v>4518.0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>976.0</v>
+        <v>264.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>1194.0</v>
+        <v>257.0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="20">
@@ -988,22 +988,22 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>178.0</v>
+        <v>163.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>4511.0</v>
+        <v>4501.0</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3213.0</v>
+        <v>1110.0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2180.0</v>
+        <v>1342.0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1.47</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         <v>52</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>170.0</v>
+        <v>172.0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>4496.0</v>
+        <v>4459.0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>1369.0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>478.0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>2.86</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,22 +1046,22 @@
         <v>54</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>172.0</v>
+        <v>149.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4459.0</v>
+        <v>4454.0</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.0</v>
+        <v>468.0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.0</v>
+        <v>466.0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1075,22 +1075,22 @@
         <v>56</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>149.0</v>
+        <v>161.0</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>4454.0</v>
+        <v>4443.0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>468.0</v>
+        <v>86.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>466.0</v>
+        <v>92.0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1.0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24">
@@ -1104,22 +1104,22 @@
         <v>58</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>161.0</v>
+        <v>179.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4450.0</v>
+        <v>4425.0</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>86.0</v>
+        <v>617.0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>92.0</v>
+        <v>703.0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="25">
@@ -1133,22 +1133,22 @@
         <v>60</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>178.0</v>
+        <v>176.0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>4427.0</v>
+        <v>4374.0</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>543.0</v>
+        <v>748.0</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>703.0</v>
+        <v>1060.0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="26">
@@ -1162,22 +1162,22 @@
         <v>62</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>176.0</v>
+        <v>160.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>4374.0</v>
+        <v>4335.0</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>688.0</v>
+        <v>634.0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>1060.0</v>
+        <v>1016.0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="27">
@@ -1194,19 +1194,19 @@
         <v>160.0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>4336.0</v>
+        <v>4285.0</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>634.0</v>
+        <v>109.0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>979.0</v>
+        <v>482.0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28">
@@ -1220,22 +1220,22 @@
         <v>66</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>160.0</v>
+        <v>195.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4282.0</v>
+        <v>4273.0</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>72.0</v>
+        <v>2135.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>371.0</v>
+        <v>2474.0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.19</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="29">
@@ -1249,22 +1249,22 @@
         <v>68</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>195.0</v>
+        <v>179.0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>4276.0</v>
+        <v>4246.0</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>2135.0</v>
+        <v>1629.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>2439.0</v>
+        <v>1726.0</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="30">
@@ -1278,22 +1278,22 @@
         <v>70</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>179.0</v>
+        <v>170.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4246.0</v>
+        <v>4208.0</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1557.0</v>
+        <v>1476.0</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>1691.0</v>
+        <v>589.0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.92</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="31">
@@ -1319,10 +1319,10 @@
         <v>548.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>656.0</v>
+        <v>691.0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="32">
@@ -1397,19 +1397,19 @@
         <v>156.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>3844.0</v>
+        <v>3854.0</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>684.0</v>
+        <v>721.0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>441.0</v>
+        <v>512.0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="35">
@@ -1426,19 +1426,19 @@
         <v>180.0</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>3696.0</v>
+        <v>3826.0</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>79.0</v>
+        <v>349.0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>74.0</v>
+        <v>370.0</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>1.07</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="36">
@@ -1455,19 +1455,19 @@
         <v>154.0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>3587.0</v>
+        <v>3643.0</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>181.0</v>
+        <v>821.0</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>74.0</v>
+        <v>403.0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>2.45</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="37">
@@ -1519,13 +1519,13 @@
         <v>14</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1788.0</v>
+        <v>1967.0</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>1086.0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         <v>88</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>214.0</v>
+        <v>151.0</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>3376.0</v>
+        <v>3358.0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>1652.0</v>
+        <v>918.0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>1761.0</v>
+        <v>60.0</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.94</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="40">
@@ -1568,22 +1568,22 @@
         <v>90</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>151.0</v>
+        <v>132.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>3368.0</v>
+        <v>3350.0</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>918.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>15.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1597,22 +1597,22 @@
         <v>92</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>132.0</v>
+        <v>154.0</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>3350.0</v>
+        <v>3310.0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>0.0</v>
+        <v>134.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>0.0</v>
+        <v>305.0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="42">
@@ -1626,22 +1626,22 @@
         <v>94</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>3322.0</v>
+        <v>3297.0</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>134.0</v>
+        <v>1522.0</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>305.0</v>
+        <v>1904.0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43">
@@ -1655,22 +1655,22 @@
         <v>96</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>157.0</v>
+        <v>123.0</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>3264.0</v>
+        <v>3155.0</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>1425.0</v>
+        <v>69.0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>1694.0</v>
+        <v>154.0</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.84</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44">
@@ -1684,22 +1684,22 @@
         <v>98</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>123.0</v>
+        <v>214.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>3155.0</v>
+        <v>3055.0</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>69.0</v>
+        <v>2007.0</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>124.0</v>
+        <v>2125.0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.56</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1716,7 @@
         <v>136.0</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>2664.0</v>
+        <v>2674.0</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>28</v>
@@ -1725,10 +1725,10 @@
         <v>72.0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>248.0</v>
+        <v>315.0</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46">
@@ -1745,7 +1745,7 @@
         <v>113.0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2575.0</v>
+        <v>2561.0</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1774,16 +1774,16 @@
         <v>166.0</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>2101.0</v>
+        <v>2122.0</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>1051.0</v>
+        <v>1125.0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>1077.0</v>
+        <v>1151.0</v>
       </c>
       <c r="I47" s="3" t="n">
         <v>0.98</v>
@@ -1821,7 +1821,7 @@
   </sheetData>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;LClanoverzicht&amp;R29/12/2017 10:34</oddFooter>
+    <oddFooter>&amp;LClanoverzicht&amp;R29/12/2017 15:47</oddFooter>
   </headerFooter>
 </worksheet>
 </file>